--- a/Time_shortest_paths.xlsx
+++ b/Time_shortest_paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dumps\Scores output\Park_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F7AFB4-F6BF-4A5B-947F-20742A2F4643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402E541-AF25-4F76-BB77-EC5B367FBA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7A75FFE-539D-4EB1-8D55-302798D59E74}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time (100.000 routes)</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Networkx (mns) call graph.nodes() per iter</t>
+  </si>
+  <si>
+    <t>Networkit</t>
+  </si>
+  <si>
+    <t>Dublin is to 9.44mns / 100.000 as Park from OSM are taken</t>
   </si>
 </sst>
 </file>
@@ -109,9 +115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E970A2-F675-4B7E-8B1A-485F264B1E6C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +448,7 @@
     <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +461,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -472,8 +482,15 @@
         <f>(D2-B2)/B2</f>
         <v>-0.90194346289752658</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/D2-1</f>
+        <v>2.9189189189189184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,8 +508,15 @@
         <f t="shared" ref="E3:E8" si="0">(D3-B3)/B3</f>
         <v>-0.90426457789382075</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G8" si="1">F3/D3-1</f>
+        <v>1.7272727272727275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -510,8 +534,15 @@
         <f t="shared" si="0"/>
         <v>-0.21437422552664123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4511041009463721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -528,8 +559,15 @@
         <f t="shared" si="0"/>
         <v>-0.72081764389456693</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>13.3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5626204238921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -546,8 +584,15 @@
         <f t="shared" si="0"/>
         <v>-0.89473684210526327</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -564,8 +609,19 @@
         <f t="shared" si="0"/>
         <v>0.21266233766233764</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.7322623828647925</v>
+      </c>
+      <c r="H7">
+        <f>54/5.6</f>
+        <v>9.6428571428571441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>SUM(B2:B7)</f>
         <v>102.82000000000001</v>
@@ -582,6 +638,20 @@
         <f t="shared" si="0"/>
         <v>-0.61563898074304613</v>
       </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>46.32</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17206477732793535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
